--- a/testDataExcel.xlsx
+++ b/testDataExcel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHINATI\Documents\Personal\JavaPractice\SeleniumFrameworkPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A299D9-B408-48B2-943A-5B793B1E561C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D89A68-D8D5-4F4B-ACC5-2D9215E21D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="testDataSheet" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>TestCases</t>
   </si>
@@ -73,6 +74,42 @@
   </si>
   <si>
     <t>Purchase Order 4</t>
+  </si>
+  <si>
+    <t>Upgrade Testing (Regression) -  OS to OS -  7 Days</t>
+  </si>
+  <si>
+    <t>Upgrade Testing (Regression) -  OS to OT-  8 Days</t>
+  </si>
+  <si>
+    <t>ODM upgrade - 2 Days</t>
+  </si>
+  <si>
+    <t>Thesaurus RESET - 2 Days</t>
+  </si>
+  <si>
+    <t>https://jira.oraclecorp.com/jira/browse/OFSCS-8966 - 2 Days</t>
+  </si>
+  <si>
+    <t>https://jira.oraclecorp.com/jira/browse/OFSCS-10387 - 2 Days</t>
+  </si>
+  <si>
+    <t>Transliteration - 3 Days</t>
+  </si>
+  <si>
+    <t>Migrate from OS to OT on Day n -  2 Days</t>
+  </si>
+  <si>
+    <t>Regression - 5 days</t>
+  </si>
+  <si>
+    <t>Release Activities  - 2 days</t>
+  </si>
+  <si>
+    <t>Bug Retest - 3 Days</t>
+  </si>
+  <si>
+    <t>MMG Fix and Data Pipeline changes</t>
   </si>
 </sst>
 </file>
@@ -123,9 +160,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -555,6 +601,165 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09666072-57A6-4305-9050-966B6DDA58A3}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://jira.oraclecorp.com/jira/browse/OFSCS-8966" xr:uid="{B8BBD10E-5FAE-4AC7-AAA6-E8A0CBD849B1}"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://jira.oraclecorp.com/jira/browse/OFSCS-10387" xr:uid="{82736C7D-E474-4FAD-AACC-CE7D5CA3144E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DB4F52-93C6-46C6-92AC-9044E6FB9BC7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -566,7 +771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE5D787-C364-4FF0-A6DD-6072D4923C3F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/testDataExcel.xlsx
+++ b/testDataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHINATI\Documents\Personal\JavaPractice\SeleniumFrameworkPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D89A68-D8D5-4F4B-ACC5-2D9215E21D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA61FA2-8983-471C-B240-FA2C05D59596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>TestCases</t>
   </si>
@@ -61,9 +61,6 @@
     <t>ZARA COAT 3</t>
   </si>
   <si>
-    <t>TestCase Number</t>
-  </si>
-  <si>
     <t>Purchase Order 1</t>
   </si>
   <si>
@@ -110,6 +107,24 @@
   </si>
   <si>
     <t>MMG Fix and Data Pipeline changes</t>
+  </si>
+  <si>
+    <t>TestCaseNumber</t>
+  </si>
+  <si>
+    <t>ZARA COAT 3AB</t>
+  </si>
+  <si>
+    <t>abhinavtest@gmail.comA</t>
+  </si>
+  <si>
+    <t>Newchandela47@A</t>
+  </si>
+  <si>
+    <t>abhinavtest@gmail.com1</t>
+  </si>
+  <si>
+    <t>ADIDAS ORIGINA1L</t>
   </si>
 </sst>
 </file>
@@ -467,116 +482,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -585,15 +600,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E9B2571D-1F10-43EA-B255-A9C9159DBEF5}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{FB6389FF-2459-48B0-8DD5-4F92B146BAAB}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{146D4F69-CC72-488D-A792-FDA1649AD0C8}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{AC90AB53-4153-4627-B266-074726BFD310}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{6936FC24-5256-4575-ABC3-E4176F28CF9C}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{9708379E-4E5D-4FA6-9EDE-BF92D8F00637}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{2058C3CE-E1BA-4C35-8BC9-3AD8F37EDBC2}"/>
-    <hyperlink ref="A6" r:id="rId8" xr:uid="{81D724CC-67D6-45B4-B2A9-5055C2F7F340}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{895F7716-9218-4D4F-B520-BA43A5329AA6}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E9B2571D-1F10-43EA-B255-A9C9159DBEF5}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{FB6389FF-2459-48B0-8DD5-4F92B146BAAB}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{146D4F69-CC72-488D-A792-FDA1649AD0C8}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{AC90AB53-4153-4627-B266-074726BFD310}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{6936FC24-5256-4575-ABC3-E4176F28CF9C}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{9708379E-4E5D-4FA6-9EDE-BF92D8F00637}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{2058C3CE-E1BA-4C35-8BC9-3AD8F37EDBC2}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{81D724CC-67D6-45B4-B2A9-5055C2F7F340}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{895F7716-9218-4D4F-B520-BA43A5329AA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -604,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09666072-57A6-4305-9050-966B6DDA58A3}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +633,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -629,7 +644,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -638,7 +653,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -649,7 +664,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -658,7 +673,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -667,7 +682,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -676,7 +691,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -685,7 +700,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -694,7 +709,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -703,7 +718,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -717,7 +732,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -728,7 +743,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>2</v>
